--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1497A88B-1ABF-4636-87A2-C6E72BD5FA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EB6EF2-5E9A-497E-88C2-752B2D9FA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="285" windowWidth="12750" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Num</t>
   </si>
@@ -34,7 +34,12 @@
     <t>string</t>
   </si>
   <si>
-    <t>용감한 쿠기</t>
+    <t>딸기맛 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>용감한 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -968,13 +973,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -990,11 +997,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EB6EF2-5E9A-497E-88C2-752B2D9FA052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25155C30-F3CD-4574-9743-1CAC696180A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Num</t>
   </si>
@@ -39,6 +39,138 @@
   </si>
   <si>
     <t>용감한 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GradeType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EGradeType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼에픽 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPER_EPIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이션트 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGENDARY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANCIENT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:ECookieRollType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RollType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFENDER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIGHTER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSASSIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMBER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPORTER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEALER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전더리 쿠키2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전더리 쿠키1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cri</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormationPosType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EFormationPositionType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -973,44 +1105,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25155C30-F3CD-4574-9743-1CAC696180A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA65E4F7-0339-4A3A-ABDD-34244518ADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Num</t>
   </si>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>REAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitSoulStone</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1105,20 +1109,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" customWidth="1"/>
+    <col min="4" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,19 +1139,22 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1175,10 +1182,13 @@
       <c r="I2" t="s">
         <v>34</v>
       </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1193,7 +1203,7 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1204,10 +1214,13 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1222,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1233,10 +1246,13 @@
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1251,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1262,10 +1278,13 @@
       <c r="I5">
         <v>5</v>
       </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3001</v>
+        <v>3010</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1280,7 +1299,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1291,10 +1310,13 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4001</v>
+        <v>4010</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1309,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -1320,10 +1342,13 @@
       <c r="I7">
         <v>10</v>
       </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5001</v>
+        <v>5010</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1341,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1349,10 +1374,13 @@
       <c r="I8">
         <v>10</v>
       </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6001</v>
+        <v>6010</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1370,7 +1398,7 @@
         <v>20</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>21</v>
@@ -1378,10 +1406,13 @@
       <c r="I9">
         <v>21</v>
       </c>
+      <c r="J9">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6002</v>
+        <v>6020</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -1396,15 +1427,18 @@
         <v>38</v>
       </c>
       <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
         <v>50</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
         <v>10</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA65E4F7-0339-4A3A-ABDD-34244518ADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB107E98-F019-4C67-9D04-2ABBFC73F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Num</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>InitSoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie/DummyCookie1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1109,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1134,7 @@
     <col min="4" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1153,8 +1165,11 @@
       <c r="J1" t="s">
         <v>33</v>
       </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1185,8 +1200,11 @@
       <c r="J2" t="s">
         <v>34</v>
       </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1010</v>
       </c>
@@ -1217,8 +1235,11 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1020</v>
       </c>
@@ -1249,8 +1270,11 @@
       <c r="J4">
         <v>2</v>
       </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -1281,8 +1305,11 @@
       <c r="J5">
         <v>5</v>
       </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3010</v>
       </c>
@@ -1313,8 +1340,11 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4010</v>
       </c>
@@ -1345,8 +1375,11 @@
       <c r="J7">
         <v>10</v>
       </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5010</v>
       </c>
@@ -1377,8 +1410,11 @@
       <c r="J8">
         <v>10</v>
       </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6010</v>
       </c>
@@ -1409,8 +1445,11 @@
       <c r="J9">
         <v>21</v>
       </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6020</v>
       </c>
@@ -1440,6 +1479,9 @@
       </c>
       <c r="J10">
         <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -1,193 +1,233 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB107E98-F019-4C67-9D04-2ABBFC73F7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42730D8D-8B3A-4442-906B-C29D5DEB6489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Num</t>
   </si>
   <si>
+    <t>int:pk</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>딸기맛 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>용감한 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GradeType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EGradeType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼에픽 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPER_EPIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이션트 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEGENDARY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANCIENT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:ECookieRollType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RollType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFENDER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIGHTER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSASSIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMBER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPPORTER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEALER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNIPER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전더리 쿠키2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전더리 쿠키1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cri</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormationPosType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EFormationPositionType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitSoulStone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie/DummyCookie1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>int:pk</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>딸기맛 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>용감한 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GradeType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EGradeType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RARE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>에픽 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EPIC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈퍼에픽 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPER_EPIC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이션트 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEGENDARY</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANCIENT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:ECookieRollType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RollType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFENDER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIGHTER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASSASSIN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOMBER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAGE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPPORTER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEALER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNIPER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레전더리 쿠키2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레전더리 쿠키1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cri</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormationPosType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EFormationPositionType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRONT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitSoulStone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cookie/DummyCookie1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOKIE_NAME_1010</t>
+  </si>
+  <si>
+    <t>COOKIE_NAME_1020</t>
+  </si>
+  <si>
+    <t>COOKIE_NAME_2010</t>
+  </si>
+  <si>
+    <t>COOKIE_NAME_3010</t>
+  </si>
+  <si>
+    <t>COOKIE_NAME_4010</t>
+  </si>
+  <si>
+    <t>COOKIE_NAME_5010</t>
+  </si>
+  <si>
+    <t>COOKIE_NAME_6010</t>
+  </si>
+  <si>
+    <t>COOKIE_NAME_6020</t>
   </si>
 </sst>
 </file>
@@ -1121,110 +1161,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="6" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1235,31 +1282,34 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>42</v>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1020</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4">
         <v>20</v>
       </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
       <c r="G4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1270,31 +1320,34 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>42</v>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
         <v>20</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -1305,31 +1358,34 @@
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
-        <v>42</v>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3010</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
         <v>20</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1340,31 +1396,34 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>42</v>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4010</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
         <v>20</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1375,34 +1434,37 @@
       <c r="J7">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
-        <v>42</v>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5010</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
       </c>
       <c r="G8">
         <v>20</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1410,34 +1472,37 @@
       <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
-        <v>42</v>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6010</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
       </c>
       <c r="G9">
         <v>20</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>21</v>
@@ -1445,34 +1510,37 @@
       <c r="J9">
         <v>21</v>
       </c>
-      <c r="K9" t="s">
-        <v>42</v>
+      <c r="K9">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6020</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>50</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1480,8 +1548,11 @@
       <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" t="s">
-        <v>42</v>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42730D8D-8B3A-4442-906B-C29D5DEB6489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B51AAB-5B60-43CB-862E-49B331D2CF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="2700" yWindow="1005" windowWidth="20310" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Num</t>
   </si>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>COOKIE_NAME_6020</t>
+  </si>
+  <si>
+    <t>IconSprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1161,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1179,7 @@
     <col min="5" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,8 +1216,11 @@
       <c r="L1" t="s">
         <v>39</v>
       </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1250,8 +1257,11 @@
       <c r="L2" t="s">
         <v>40</v>
       </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1010</v>
       </c>
@@ -1288,8 +1298,11 @@
       <c r="L3" t="s">
         <v>41</v>
       </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1020</v>
       </c>
@@ -1326,8 +1339,11 @@
       <c r="L4" t="s">
         <v>41</v>
       </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -1364,8 +1380,11 @@
       <c r="L5" t="s">
         <v>41</v>
       </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3010</v>
       </c>
@@ -1402,8 +1421,11 @@
       <c r="L6" t="s">
         <v>41</v>
       </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4010</v>
       </c>
@@ -1440,8 +1462,11 @@
       <c r="L7" t="s">
         <v>41</v>
       </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5010</v>
       </c>
@@ -1478,8 +1503,11 @@
       <c r="L8" t="s">
         <v>41</v>
       </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6010</v>
       </c>
@@ -1516,8 +1544,11 @@
       <c r="L9" t="s">
         <v>41</v>
       </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6020</v>
       </c>
@@ -1552,6 +1583,9 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B51AAB-5B60-43CB-862E-49B331D2CF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58290BF7-32CB-499F-ADB7-4CDD0D3BFA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1005" windowWidth="20310" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="20310" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Num</t>
   </si>
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>IconSprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulStoneNum</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1165,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1176,10 +1180,10 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="7" width="19.5703125" customWidth="1"/>
+    <col min="5" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,28 +1203,31 @@
         <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1255,13 +1262,16 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1010</v>
       </c>
@@ -1281,10 +1291,11 @@
         <v>36</v>
       </c>
       <c r="G3">
+        <f>A3+1</f>
+        <v>1011</v>
+      </c>
+      <c r="H3">
         <v>20</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1295,14 +1306,17 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>41</v>
+      <c r="L3">
+        <v>1</v>
       </c>
       <c r="M3" t="s">
         <v>41</v>
       </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1020</v>
       </c>
@@ -1322,10 +1336,11 @@
         <v>36</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G10" si="0">A4+1</f>
+        <v>1021</v>
+      </c>
+      <c r="H4">
         <v>20</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1336,14 +1351,17 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
+      <c r="L4">
+        <v>2</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
       </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -1363,10 +1381,11 @@
         <v>36</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H5">
         <v>20</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1377,14 +1396,17 @@
       <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
-        <v>41</v>
+      <c r="L5">
+        <v>5</v>
       </c>
       <c r="M5" t="s">
         <v>41</v>
       </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3010</v>
       </c>
@@ -1404,10 +1426,11 @@
         <v>36</v>
       </c>
       <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3011</v>
+      </c>
+      <c r="H6">
         <v>20</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1418,14 +1441,17 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>41</v>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6" t="s">
         <v>41</v>
       </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4010</v>
       </c>
@@ -1445,10 +1471,11 @@
         <v>36</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4011</v>
+      </c>
+      <c r="H7">
         <v>20</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1459,14 +1486,17 @@
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
-        <v>41</v>
+      <c r="L7">
+        <v>10</v>
       </c>
       <c r="M7" t="s">
         <v>41</v>
       </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5010</v>
       </c>
@@ -1486,13 +1516,14 @@
         <v>36</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>5011</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1500,14 +1531,17 @@
       <c r="K8">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
-        <v>41</v>
+      <c r="L8">
+        <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>41</v>
       </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6010</v>
       </c>
@@ -1527,13 +1561,14 @@
         <v>36</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>6011</v>
       </c>
       <c r="H9">
         <v>20</v>
       </c>
       <c r="I9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9">
         <v>21</v>
@@ -1541,14 +1576,17 @@
       <c r="K9">
         <v>21</v>
       </c>
-      <c r="L9" t="s">
-        <v>41</v>
+      <c r="L9">
+        <v>21</v>
       </c>
       <c r="M9" t="s">
         <v>41</v>
       </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6020</v>
       </c>
@@ -1568,13 +1606,14 @@
         <v>37</v>
       </c>
       <c r="G10">
+        <f t="shared" si="0"/>
+        <v>6021</v>
+      </c>
+      <c r="H10">
         <v>20</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>50</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1582,10 +1621,13 @@
       <c r="K10">
         <v>10</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
         <v>41</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Data/Excel/Proto/Cookie.xlsx
+++ b/Data/Excel/Proto/Cookie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58290BF7-32CB-499F-ADB7-4CDD0D3BFA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B51C01A-9AEF-48E7-B8B7-1A0FF4948999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="20310" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
+    <workbookView xWindow="450" yWindow="705" windowWidth="24975" windowHeight="11295" xr2:uid="{A122D7ED-2698-4919-AFB3-8D3D98F98776}"/>
   </bookViews>
   <sheets>
     <sheet name="Cookie" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Num</t>
   </si>
@@ -42,10 +42,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>딸기맛 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>용감한 쿠키</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -62,34 +58,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>레어 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RARE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>에픽 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EPIC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>슈퍼에픽 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SUPER_EPIC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>에이션트 쿠키</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LEGENDARY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -138,14 +118,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>레전더리 쿠키2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레전더리 쿠키1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Hp</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -194,10 +166,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Cookie/DummyCookie1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -235,6 +203,31 @@
   </si>
   <si>
     <t>SoulStoneNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기기사 쿠키</t>
+  </si>
+  <si>
+    <t>그림자 쿠키</t>
+  </si>
+  <si>
+    <t>폭탄맛 쿠키</t>
+  </si>
+  <si>
+    <t>생명의 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의 사수 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈팅스타맛 쿠키</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닐라크림맛 쿠키</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1171,16 +1164,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44314A49-C27D-4F35-AB30-B78979822F33}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
     <col min="5" max="8" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1188,43 +1182,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1238,37 +1232,37 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1276,19 +1270,19 @@
         <v>1010</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <f>A3+1</f>
@@ -1309,11 +1303,13 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
+      <c r="M3" t="str">
+        <f>_xlfn.CONCAT("Cookie/Cookie_", A3)</f>
+        <v>Cookie/Cookie_1010</v>
+      </c>
+      <c r="N3" t="str">
+        <f>_xlfn.CONCAT("Cookie/CookiePortrait_", A3)</f>
+        <v>Cookie/CookiePortrait_1010</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1321,19 +1317,19 @@
         <v>1020</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G10" si="0">A4+1</f>
@@ -1354,11 +1350,13 @@
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M10" si="1">_xlfn.CONCAT("Cookie/Cookie_", A4)</f>
+        <v>Cookie/Cookie_1020</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N10" si="2">_xlfn.CONCAT("Cookie/CookiePortrait_", A4)</f>
+        <v>Cookie/CookiePortrait_1020</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1366,19 +1364,19 @@
         <v>2010</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -1399,11 +1397,13 @@
       <c r="L5">
         <v>5</v>
       </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/Cookie_2010</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>Cookie/CookiePortrait_2010</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1411,19 +1411,19 @@
         <v>3010</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -1444,11 +1444,13 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>41</v>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/Cookie_3010</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>Cookie/CookiePortrait_3010</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1456,19 +1458,19 @@
         <v>4010</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1489,11 +1491,13 @@
       <c r="L7">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>41</v>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/Cookie_4010</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>Cookie/CookiePortrait_4010</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1501,19 +1505,19 @@
         <v>5010</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1534,11 +1538,13 @@
       <c r="L8">
         <v>10</v>
       </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/Cookie_5010</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>Cookie/CookiePortrait_5010</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1546,19 +1552,19 @@
         <v>6010</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1579,11 +1585,13 @@
       <c r="L9">
         <v>21</v>
       </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/Cookie_6010</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>Cookie/CookiePortrait_6010</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1591,19 +1599,19 @@
         <v>6020</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1624,11 +1632,13 @@
       <c r="L10">
         <v>10</v>
       </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
-        <v>41</v>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>Cookie/Cookie_6020</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>Cookie/CookiePortrait_6020</v>
       </c>
     </row>
   </sheetData>
